--- a/LOGINS/teacher_credentials.xlsx
+++ b/LOGINS/teacher_credentials.xlsx
@@ -9,9 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,6 +460,7 @@
         </is>
       </c>
       <c r="B2" t="inlineStr">
+        <v>123</v>
         <is>
           <t>5jdLUEAPgW</t>
         </is>
